--- a/Arima_solcell/forecast_metrics.xlsx
+++ b/Arima_solcell/forecast_metrics.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.88822619827107</v>
+        <v>18.88871213808791</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.2341400797721</v>
+        <v>10.02199516229659</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57.45846360040462</v>
+        <v>15.78886476551767</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37.74925626434266</v>
+        <v>37.90201803173963</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.53737275643866</v>
+        <v>14.91016495125817</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.97520905676552</v>
+        <v>51.24920665294419</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.49817437181351</v>
+        <v>13.2699831310587</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65.96746532614623</v>
+        <v>12.29858338498519</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.53581467675764</v>
+        <v>12.36621298909755</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.06573891199037</v>
+        <v>32.5997705138884</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>67.83820902057417</v>
+        <v>30.06057979855233</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.05499914833281</v>
+        <v>11.95926103607829</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>80.75822905595487</v>
+        <v>37.25830280487359</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>65.0902152066391</v>
+        <v>11.16121954025922</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51.88872733041461</v>
+        <v>22.31258687496361</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>63.79497016509032</v>
+        <v>10.30350035921464</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>46.59015538513079</v>
+        <v>46.93088545382042</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.07015859226394</v>
+        <v>17.53093423242296</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>35.02225617530635</v>
+        <v>34.89292314706981</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>49.47787695649171</v>
+        <v>41.64709837767005</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.74695146773476</v>
+        <v>31.7821751889719</v>
       </c>
     </row>
   </sheetData>
